--- a/app/code/data/excels/copy_expenses.xlsx
+++ b/app/code/data/excels/copy_expenses.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614502180" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614502180" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614502180" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614502180"/>
+      <pm:revision xmlns:pm="smNativeData" day="1616078867" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1616078867" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1616078867" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1616078867"/>
     </ext>
   </extLst>
 </workbook>
@@ -1273,7 +1273,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1288,7 +1288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1319,7 +1319,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1328,7 +1328,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1359,8 +1359,19 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1616078867" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1376,7 +1387,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180"/>
+          <pm:border xmlns:pm="smNativeData" id="1616078867"/>
         </ext>
       </extLst>
     </border>
@@ -1395,7 +1406,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1416,7 +1427,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1438,7 +1449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1459,7 +1470,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1480,7 +1491,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1502,7 +1513,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1525,7 +1536,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1547,9 +1558,28 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1616078867"/>
         </ext>
       </extLst>
     </border>
@@ -1628,10 +1658,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614502180" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1616078867" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614502180" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1616078867" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1897,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K624"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G11"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="150" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
@@ -2118,7 +2148,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>25</v>
@@ -3263,7 +3293,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" t="n">
-        <v>13.9199999999999999</v>
+        <v>13.9200000000000017</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>103</v>
@@ -3547,7 +3577,7 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>120</v>
@@ -5637,7 +5667,7 @@
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="3" t="n">
-        <v>11.4199999999999999</v>
+        <v>11.4200000000000017</v>
       </c>
       <c r="D267" s="13" t="s">
         <v>232</v>
@@ -7846,7 +7876,7 @@
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="3" t="n">
-        <v>114.109999999999999</v>
+        <v>114.110000000000014</v>
       </c>
       <c r="D432" s="13" t="s">
         <v>92</v>
@@ -9886,7 +9916,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9895,14 +9925,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9924,7 +9954,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9933,14 +9963,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9962,7 +9992,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9971,14 +10001,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/code/data/excels/copy_expenses.xlsx
+++ b/app/code/data/excels/copy_expenses.xlsx
@@ -496,10 +496,8 @@
           <t xml:space="preserve"> 1er loyer du campus laval</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2019-08-01</t>
-        </is>
+      <c r="E2" t="n">
+        <v>43678</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -534,10 +532,8 @@
           <t xml:space="preserve"> billet france -&gt; quebec</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2019-08-01</t>
-        </is>
+      <c r="E3" t="n">
+        <v>43678</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -572,10 +568,8 @@
           <t>equipement fnac, oreiller</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2019-08-04</t>
-        </is>
+      <c r="E4" t="n">
+        <v>43681</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -610,10 +604,8 @@
           <t>pharmacie creme visage + dermatologue</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2019-08-06</t>
-        </is>
+      <c r="E5" t="n">
+        <v>43683</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -648,10 +640,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2019-08-10</t>
-        </is>
+      <c r="E6" t="n">
+        <v>43687</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -686,10 +676,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2019-08-10</t>
-        </is>
+      <c r="E7" t="n">
+        <v>43687</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -724,10 +712,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2019-08-15</t>
-        </is>
+      <c r="E8" t="n">
+        <v>43692</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -762,10 +748,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2019-08-17</t>
-        </is>
+      <c r="E9" t="n">
+        <v>43694</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -800,10 +784,8 @@
           <t>transport bus arrivee</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2019-08-22</t>
-        </is>
+      <c r="E10" t="n">
+        <v>43699</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -838,10 +820,8 @@
           <t>chambre mois d aout</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2019-08-22</t>
-        </is>
+      <c r="E11" t="n">
+        <v>43699</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -876,10 +856,8 @@
           <t>bonbon reese (test carte bleue)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2019-08-22</t>
-        </is>
+      <c r="E12" t="n">
+        <v>43699</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -914,10 +892,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2019-08-22</t>
-        </is>
+      <c r="E13" t="n">
+        <v>43699</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -952,10 +928,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2019-08-22</t>
-        </is>
+      <c r="E14" t="n">
+        <v>43699</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -990,10 +964,8 @@
           <t>the gingembre 1 boite</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E15" t="n">
+        <v>43700</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1028,10 +1000,8 @@
           <t xml:space="preserve"> 2 jeans, un fonce et un couleur jean</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E16" t="n">
+        <v>43700</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1066,10 +1036,8 @@
           <t xml:space="preserve"> brosse a dents, crocks, rasoirs</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E17" t="n">
+        <v>43700</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1104,10 +1072,8 @@
           <t>shampoing ives rocher</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E18" t="n">
+        <v>43700</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1142,10 +1108,8 @@
           <t xml:space="preserve"> tasse, bol, bouilloire, boule a the, manger</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E19" t="n">
+        <v>43700</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1180,10 +1144,8 @@
           <t>jean et short sport</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E20" t="n">
+        <v>43700</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1218,10 +1180,8 @@
           <t>carte bus 1 jour</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E21" t="n">
+        <v>43700</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1256,10 +1216,8 @@
           <t>frappe starbuck</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E22" t="n">
+        <v>43700</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1294,10 +1252,8 @@
           <t xml:space="preserve"> mauvais</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E23" t="n">
+        <v>43700</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1332,10 +1288,8 @@
           <t xml:space="preserve"> poutine</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
+      <c r="E24" t="n">
+        <v>43700</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1370,10 +1324,8 @@
           <t xml:space="preserve"> fouet, passoire</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="E25" t="n">
+        <v>43701</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1408,10 +1360,8 @@
           <t xml:space="preserve"> gant et protege main cuisine</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="E26" t="n">
+        <v>43701</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1446,10 +1396,8 @@
           <t xml:space="preserve"> 2 t-shirt</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="E27" t="n">
+        <v>43701</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1484,10 +1432,8 @@
           <t>bus vieux port, feu d artifice</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="E28" t="n">
+        <v>43701</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1522,10 +1468,8 @@
           <t>tim horton</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="E29" t="n">
+        <v>43701</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1560,10 +1504,8 @@
           <t xml:space="preserve"> draps + oreiller</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="E30" t="n">
+        <v>43701</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1598,10 +1540,8 @@
           <t xml:space="preserve"> bar</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="E31" t="n">
+        <v>43701</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1636,10 +1576,8 @@
           <t>retrait espece</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
+      <c r="E32" t="n">
+        <v>43702</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1674,10 +1612,8 @@
           <t xml:space="preserve"> nourriture</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
+      <c r="E33" t="n">
+        <v>43702</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1712,10 +1648,8 @@
           <t>transport bus</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2019-08-26</t>
-        </is>
+      <c r="E34" t="n">
+        <v>43703</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1750,10 +1684,8 @@
           <t xml:space="preserve"> metre biere</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2019-08-26</t>
-        </is>
+      <c r="E35" t="n">
+        <v>43703</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1788,10 +1720,8 @@
           <t xml:space="preserve"> grosse poutine</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2019-08-26</t>
-        </is>
+      <c r="E36" t="n">
+        <v>43703</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1826,10 +1756,8 @@
           <t xml:space="preserve"> tiphanie</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2019-08-26</t>
-        </is>
+      <c r="E37" t="n">
+        <v>43703</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1864,10 +1792,8 @@
           <t xml:space="preserve"> chaussures et maillot de bain</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2019-08-26</t>
-        </is>
+      <c r="E38" t="n">
+        <v>43703</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1902,10 +1828,8 @@
           <t xml:space="preserve"> cuisine et barbecue</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
+      <c r="E39" t="n">
+        <v>43704</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1940,10 +1864,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
+      <c r="E40" t="n">
+        <v>43704</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1978,10 +1900,8 @@
           <t>transport bus</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
+      <c r="E41" t="n">
+        <v>43704</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2016,10 +1936,8 @@
           <t>epicerie europeenne</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
+      <c r="E42" t="n">
+        <v>43704</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2054,10 +1972,8 @@
           <t xml:space="preserve"> courses cuisine et manger</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2019-08-28</t>
-        </is>
+      <c r="E43" t="n">
+        <v>43705</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2092,10 +2008,8 @@
           <t xml:space="preserve"> casserole et poele</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2019-08-28</t>
-        </is>
+      <c r="E44" t="n">
+        <v>43705</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2130,10 +2044,8 @@
           <t xml:space="preserve"> equipement papier cuisson ...</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2019-08-28</t>
-        </is>
+      <c r="E45" t="n">
+        <v>43705</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2168,10 +2080,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2019-08-28</t>
-        </is>
+      <c r="E46" t="n">
+        <v>43705</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2206,10 +2116,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
+      <c r="E47" t="n">
+        <v>43706</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2244,10 +2152,8 @@
           <t xml:space="preserve"> feuilles cahier</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
+      <c r="E48" t="n">
+        <v>43706</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2282,10 +2188,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
+      <c r="E49" t="n">
+        <v>43706</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2320,10 +2224,8 @@
           <t xml:space="preserve"> enveloppes blanches</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
+      <c r="E50" t="n">
+        <v>43706</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2358,10 +2260,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
+      <c r="E51" t="n">
+        <v>43706</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2396,10 +2296,8 @@
           <t xml:space="preserve"> balance et mixeur</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
+      <c r="E52" t="n">
+        <v>43706</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2434,10 +2332,8 @@
           <t xml:space="preserve"> nom domaine</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
+      <c r="E53" t="n">
+        <v>43706</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2472,10 +2368,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2019-08-30</t>
-        </is>
+      <c r="E54" t="n">
+        <v>43707</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2510,10 +2404,8 @@
           <t>biere magasin pres lvlop</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2019-08-30</t>
-        </is>
+      <c r="E55" t="n">
+        <v>43707</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2548,10 +2440,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2019-08-30</t>
-        </is>
+      <c r="E56" t="n">
+        <v>43707</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2586,10 +2476,8 @@
           <t xml:space="preserve"> the et autre</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2019-08-30</t>
-        </is>
+      <c r="E57" t="n">
+        <v>43707</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2624,10 +2512,8 @@
           <t xml:space="preserve"> nourriture</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+      <c r="E58" t="n">
+        <v>43708</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2662,10 +2548,8 @@
           <t>pub universitaire</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+      <c r="E59" t="n">
+        <v>43708</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2700,10 +2584,8 @@
           <t xml:space="preserve"> soiree</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2019-09-03</t>
-        </is>
+      <c r="E60" t="n">
+        <v>43711</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2738,10 +2620,8 @@
           <t xml:space="preserve"> nourriture</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2019-09-03</t>
-        </is>
+      <c r="E61" t="n">
+        <v>43711</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2776,10 +2656,8 @@
           <t xml:space="preserve"> nourriture</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2019-09-05</t>
-        </is>
+      <c r="E62" t="n">
+        <v>43713</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2814,10 +2692,8 @@
           <t xml:space="preserve"> equipement</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2019-09-06</t>
-        </is>
+      <c r="E63" t="n">
+        <v>43714</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2852,10 +2728,8 @@
           <t xml:space="preserve"> alimentation</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2019-09-06</t>
-        </is>
+      <c r="E64" t="n">
+        <v>43714</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2890,10 +2764,8 @@
           <t>t-shirt laval x2</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2019-09-06</t>
-        </is>
+      <c r="E65" t="n">
+        <v>43714</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2928,10 +2800,8 @@
           <t xml:space="preserve"> livres cours</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2019-09-06</t>
-        </is>
+      <c r="E66" t="n">
+        <v>43714</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2966,10 +2836,8 @@
           <t xml:space="preserve"> fruits legumes</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2019-09-07</t>
-        </is>
+      <c r="E67" t="n">
+        <v>43715</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3004,10 +2872,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2019-09-08</t>
-        </is>
+      <c r="E68" t="n">
+        <v>43716</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3042,10 +2908,8 @@
           <t xml:space="preserve"> ca</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2019-09-08</t>
-        </is>
+      <c r="E69" t="n">
+        <v>43716</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3080,10 +2944,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2019-09-09</t>
-        </is>
+      <c r="E70" t="n">
+        <v>43717</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3118,10 +2980,8 @@
           <t xml:space="preserve"> legume</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2019-09-09</t>
-        </is>
+      <c r="E71" t="n">
+        <v>43717</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3156,10 +3016,8 @@
           <t xml:space="preserve"> vodka et kraken (rhum)</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2019-09-11</t>
-        </is>
+      <c r="E72" t="n">
+        <v>43719</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3194,10 +3052,8 @@
           <t>coiffeur cite</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2019-09-11</t>
-        </is>
+      <c r="E73" t="n">
+        <v>43719</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3232,10 +3088,8 @@
           <t>pub u</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>2019-09-11</t>
-        </is>
+      <c r="E74" t="n">
+        <v>43719</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3270,10 +3124,8 @@
           <t xml:space="preserve"> raquette ping pong</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2019-09-11</t>
-        </is>
+      <c r="E75" t="n">
+        <v>43719</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3308,10 +3160,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2019-09-12</t>
-        </is>
+      <c r="E76" t="n">
+        <v>43720</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3346,10 +3196,8 @@
           <t xml:space="preserve"> plats en verre</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2019-09-13</t>
-        </is>
+      <c r="E77" t="n">
+        <v>43721</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3384,10 +3232,8 @@
           <t xml:space="preserve"> cuisine</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2019-09-13</t>
-        </is>
+      <c r="E78" t="n">
+        <v>43721</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3422,10 +3268,8 @@
           <t xml:space="preserve"> cuisine</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2019-09-13</t>
-        </is>
+      <c r="E79" t="n">
+        <v>43721</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3460,10 +3304,8 @@
           <t xml:space="preserve"> biere</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2019-09-13</t>
-        </is>
+      <c r="E80" t="n">
+        <v>43721</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3498,10 +3340,8 @@
           <t>epicerie europeenne</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2019-09-13</t>
-        </is>
+      <c r="E81" t="n">
+        <v>43721</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3536,10 +3376,8 @@
           <t>anniv bougies + autre</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2019-09-13</t>
-        </is>
+      <c r="E82" t="n">
+        <v>43721</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3574,10 +3412,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2019-09-13</t>
-        </is>
+      <c r="E83" t="n">
+        <v>43721</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3612,10 +3448,8 @@
           <t xml:space="preserve"> rentrant de soiree</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2019-09-15</t>
-        </is>
+      <c r="E84" t="n">
+        <v>43723</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3650,10 +3484,8 @@
           <t xml:space="preserve"> japonais a volonter</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2019-09-15</t>
-        </is>
+      <c r="E85" t="n">
+        <v>43723</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3688,10 +3520,8 @@
           <t xml:space="preserve"> payement des loyers de oct., nov. et dec.</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2019-09-17</t>
-        </is>
+      <c r="E86" t="n">
+        <v>43725</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3726,10 +3556,8 @@
           <t xml:space="preserve"> jeu d echec</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2019-09-17</t>
-        </is>
+      <c r="E87" t="n">
+        <v>43725</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3764,10 +3592,8 @@
           <t xml:space="preserve"> ailes de poulet + biere</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2019-09-18</t>
-        </is>
+      <c r="E88" t="n">
+        <v>43726</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3802,10 +3628,8 @@
           <t xml:space="preserve"> alimentaire</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2019-09-19</t>
-        </is>
+      <c r="E89" t="n">
+        <v>43727</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3840,10 +3664,8 @@
           <t xml:space="preserve"> alcool</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2019-09-20</t>
-        </is>
+      <c r="E90" t="n">
+        <v>43728</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3878,10 +3700,8 @@
           <t xml:space="preserve"> provision depart baleines</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2019-09-20</t>
-        </is>
+      <c r="E91" t="n">
+        <v>43728</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3916,10 +3736,8 @@
           <t xml:space="preserve"> provision depart baleines</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>2019-09-20</t>
-        </is>
+      <c r="E92" t="n">
+        <v>43728</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3954,10 +3772,8 @@
           <t xml:space="preserve"> thermos</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2019-09-20</t>
-        </is>
+      <c r="E93" t="n">
+        <v>43728</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3988,10 +3804,8 @@
         <v>108</v>
       </c>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2019-09-20</t>
-        </is>
+      <c r="E94" t="n">
+        <v>43728</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4026,10 +3840,8 @@
           <t xml:space="preserve"> glace 2 boules</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>2019-09-21</t>
-        </is>
+      <c r="E95" t="n">
+        <v>43729</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4064,10 +3876,8 @@
           <t>epicerie tadusac</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2019-09-21</t>
-        </is>
+      <c r="E96" t="n">
+        <v>43729</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4102,10 +3912,8 @@
           <t xml:space="preserve"> viande</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2019-09-23</t>
-        </is>
+      <c r="E97" t="n">
+        <v>43731</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4140,10 +3948,8 @@
           <t xml:space="preserve"> gomme</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>2019-09-23</t>
-        </is>
+      <c r="E98" t="n">
+        <v>43731</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4178,10 +3984,8 @@
           <t xml:space="preserve"> masques</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>2019-09-23</t>
-        </is>
+      <c r="E99" t="n">
+        <v>43731</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4216,10 +4020,8 @@
           <t xml:space="preserve"> creme, solaire, coussin, lampe</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>2019-09-23</t>
-        </is>
+      <c r="E100" t="n">
+        <v>43731</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4254,10 +4056,8 @@
           <t xml:space="preserve"> paniers</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2019-09-23</t>
-        </is>
+      <c r="E101" t="n">
+        <v>43731</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4292,10 +4092,8 @@
           <t xml:space="preserve"> inscription</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>2019-09-25</t>
-        </is>
+      <c r="E102" t="n">
+        <v>43733</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4330,10 +4128,8 @@
           <t xml:space="preserve"> inscription ensea</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>2019-09-25</t>
-        </is>
+      <c r="E103" t="n">
+        <v>43733</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4368,10 +4164,8 @@
           <t>remboursement parents</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2019-09-25</t>
-        </is>
+      <c r="E104" t="n">
+        <v>43733</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4406,10 +4200,8 @@
           <t>remboursement parents</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>2019-09-25</t>
-        </is>
+      <c r="E105" t="n">
+        <v>43733</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4444,10 +4236,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="E106" t="n">
+        <v>43734</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4482,10 +4272,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="E107" t="n">
+        <v>43734</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4520,10 +4308,8 @@
           <t>livres + affaires</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="E108" t="n">
+        <v>43734</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4558,10 +4344,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="E109" t="n">
+        <v>43734</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4596,10 +4380,8 @@
           <t xml:space="preserve"> vetements haut</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="E110" t="n">
+        <v>43734</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4634,10 +4416,8 @@
           <t xml:space="preserve"> argent pour machine a laver</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2019-09-27</t>
-        </is>
+      <c r="E111" t="n">
+        <v>43735</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4672,10 +4452,8 @@
           <t xml:space="preserve"> courses cuisine</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>2019-09-29</t>
-        </is>
+      <c r="E112" t="n">
+        <v>43737</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4710,10 +4488,8 @@
           <t xml:space="preserve"> courses + patisserie</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2019-09-30</t>
-        </is>
+      <c r="E113" t="n">
+        <v>43738</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4748,10 +4524,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>2019-09-30</t>
-        </is>
+      <c r="E114" t="n">
+        <v>43738</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4790,10 +4564,8 @@
           <t xml:space="preserve"> glace</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2019-10-03</t>
-        </is>
+      <c r="E115" t="n">
+        <v>43741</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4828,10 +4600,8 @@
           <t xml:space="preserve"> marathon quebec</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2019-10-03</t>
-        </is>
+      <c r="E116" t="n">
+        <v>43741</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4866,10 +4636,8 @@
           <t>metro courses</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2019-10-04</t>
-        </is>
+      <c r="E117" t="n">
+        <v>43742</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4904,10 +4672,8 @@
           <t>clap (cinema, joker)</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2019-10-04</t>
-        </is>
+      <c r="E118" t="n">
+        <v>43742</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4942,10 +4708,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
-        </is>
+      <c r="E119" t="n">
+        <v>43743</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4980,10 +4744,8 @@
           <t>metro courses</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
-        </is>
+      <c r="E120" t="n">
+        <v>43743</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5018,10 +4780,8 @@
           <t xml:space="preserve"> uber eats</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>2019-10-09</t>
-        </is>
+      <c r="E121" t="n">
+        <v>43747</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5056,10 +4816,8 @@
           <t xml:space="preserve"> brassard course</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2019-10-10</t>
-        </is>
+      <c r="E122" t="n">
+        <v>43748</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5094,10 +4852,8 @@
           <t xml:space="preserve"> aurelien logement new york; ny.19.10</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2019-10-10</t>
-        </is>
+      <c r="E123" t="n">
+        <v>43748</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5136,10 +4892,8 @@
           <t xml:space="preserve"> bus aller retour newyork; ny.19.10</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2019-10-10</t>
-        </is>
+      <c r="E124" t="n">
+        <v>43748</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5178,10 +4932,8 @@
           <t xml:space="preserve"> glace</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2019-10-10</t>
-        </is>
+      <c r="E125" t="n">
+        <v>43748</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5216,10 +4968,8 @@
           <t xml:space="preserve"> sac course</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2019-10-11</t>
-        </is>
+      <c r="E126" t="n">
+        <v>43749</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5254,10 +5004,8 @@
           <t>metro courses</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2019-10-11</t>
-        </is>
+      <c r="E127" t="n">
+        <v>43749</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5292,10 +5040,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2019-10-11</t>
-        </is>
+      <c r="E128" t="n">
+        <v>43749</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5330,10 +5076,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2019-10-11</t>
-        </is>
+      <c r="E129" t="n">
+        <v>43749</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5368,10 +5112,8 @@
           <t xml:space="preserve"> gourde</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2019-10-12</t>
-        </is>
+      <c r="E130" t="n">
+        <v>43750</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5406,10 +5148,8 @@
           <t xml:space="preserve"> uber eats</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2019-10-13</t>
-        </is>
+      <c r="E131" t="n">
+        <v>43751</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5444,10 +5184,8 @@
           <t>metro courses</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2019-10-14</t>
-        </is>
+      <c r="E132" t="n">
+        <v>43752</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5482,10 +5220,8 @@
           <t>remboursement aymeric cuba vol + hotel inclus; cuba.19.10</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2019-10-14</t>
-        </is>
+      <c r="E133" t="n">
+        <v>43752</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5524,10 +5260,8 @@
           <t>pub u</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2019-10-16</t>
-        </is>
+      <c r="E134" t="n">
+        <v>43754</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5562,10 +5296,8 @@
           <t>photo marathon</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2019-10-16</t>
-        </is>
+      <c r="E135" t="n">
+        <v>43754</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5600,10 +5332,8 @@
           <t xml:space="preserve"> pour le pauvre qui m a indique le chemin</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2019-10-18</t>
-        </is>
+      <c r="E136" t="n">
+        <v>43756</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5642,10 +5372,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2019-10-18</t>
-        </is>
+      <c r="E137" t="n">
+        <v>43756</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5684,10 +5412,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2019-10-18</t>
-        </is>
+      <c r="E138" t="n">
+        <v>43756</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5726,10 +5452,8 @@
           <t>us frontiere payement</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2019-10-18</t>
-        </is>
+      <c r="E139" t="n">
+        <v>43756</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5768,10 +5492,8 @@
           <t xml:space="preserve"> visite du dernier etage</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2019-10-19</t>
-        </is>
+      <c r="E140" t="n">
+        <v>43757</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5810,10 +5532,8 @@
           <t xml:space="preserve"> peluches</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2019-10-19</t>
-        </is>
+      <c r="E141" t="n">
+        <v>43757</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5852,10 +5572,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2019-10-19</t>
-        </is>
+      <c r="E142" t="n">
+        <v>43757</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5894,10 +5612,8 @@
           <t>metro newyorkais</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2019-10-19</t>
-        </is>
+      <c r="E143" t="n">
+        <v>43757</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5936,10 +5652,8 @@
           <t>five guys</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2019-10-19</t>
-        </is>
+      <c r="E144" t="n">
+        <v>43757</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5978,10 +5692,8 @@
           <t>metro newyorkais</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2019-10-20</t>
-        </is>
+      <c r="E145" t="n">
+        <v>43758</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6020,10 +5732,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2019-10-20</t>
-        </is>
+      <c r="E146" t="n">
+        <v>43758</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6062,10 +5772,8 @@
           <t>shake shack</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2019-10-20</t>
-        </is>
+      <c r="E147" t="n">
+        <v>43758</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6104,10 +5812,8 @@
           <t>five guys</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2019-10-21</t>
-        </is>
+      <c r="E148" t="n">
+        <v>43759</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6146,10 +5852,8 @@
           <t>pizza, remboursement aurelien via bastien</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2019-10-21</t>
-        </is>
+      <c r="E149" t="n">
+        <v>43759</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6188,10 +5892,8 @@
           <t xml:space="preserve"> concert boite nuit electro</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2019-10-22</t>
-        </is>
+      <c r="E150" t="n">
+        <v>43760</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6226,10 +5928,8 @@
           <t xml:space="preserve"> envoi colis amelie et clara</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2019-10-23</t>
-        </is>
+      <c r="E151" t="n">
+        <v>43761</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6264,10 +5964,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2019-10-23</t>
-        </is>
+      <c r="E152" t="n">
+        <v>43761</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6302,10 +6000,8 @@
           <t xml:space="preserve"> bouchons oreilles</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2019-10-25</t>
-        </is>
+      <c r="E153" t="n">
+        <v>43763</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6340,10 +6036,8 @@
           <t>costume luigi et jeu compagnon</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2019-10-25</t>
-        </is>
+      <c r="E154" t="n">
+        <v>43763</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6378,10 +6072,8 @@
           <t xml:space="preserve"> cafe + gateau</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2019-10-27</t>
-        </is>
+      <c r="E155" t="n">
+        <v>43765</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6416,10 +6108,8 @@
           <t>taxi + boite pirates</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2019-10-28</t>
-        </is>
+      <c r="E156" t="n">
+        <v>43766</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6458,10 +6148,8 @@
           <t>lecon de plongee dans la piscine</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2019-10-30</t>
-        </is>
+      <c r="E157" t="n">
+        <v>43768</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6500,10 +6188,8 @@
           <t>plongee dans la baie des cochons</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
+      <c r="E158" t="n">
+        <v>43769</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6542,10 +6228,8 @@
           <t>visite de la havane</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+      <c r="E159" t="n">
+        <v>43770</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6584,10 +6268,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>2019-11-04</t>
-        </is>
+      <c r="E160" t="n">
+        <v>43773</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6626,10 +6308,8 @@
           <t xml:space="preserve"> courses petit dej et legumes</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>2019-11-05</t>
-        </is>
+      <c r="E161" t="n">
+        <v>43774</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6664,10 +6344,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>2019-11-05</t>
-        </is>
+      <c r="E162" t="n">
+        <v>43774</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -6702,10 +6380,8 @@
           <t xml:space="preserve"> brosse a dents electrique et couette hiver</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
+      <c r="E163" t="n">
+        <v>43775</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -6740,10 +6416,8 @@
           <t xml:space="preserve"> ailes de poulet</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
+      <c r="E164" t="n">
+        <v>43775</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6778,10 +6452,8 @@
           <t xml:space="preserve"> courses cuisine et legumes</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
+      <c r="E165" t="n">
+        <v>43777</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -6816,10 +6488,8 @@
           <t>metro courses</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>2019-11-09</t>
-        </is>
+      <c r="E166" t="n">
+        <v>43778</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6854,10 +6524,8 @@
           <t xml:space="preserve"> balle gym, tapis, patins a glace</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
+      <c r="E167" t="n">
+        <v>43784</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6892,10 +6560,8 @@
           <t xml:space="preserve"> protege couette, bougies</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
+      <c r="E168" t="n">
+        <v>43784</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6930,10 +6596,8 @@
           <t xml:space="preserve"> hotdogs</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
+      <c r="E169" t="n">
+        <v>43784</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6968,10 +6632,8 @@
           <t xml:space="preserve"> hotdogs</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
+      <c r="E170" t="n">
+        <v>43784</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7006,10 +6668,8 @@
           <t>desjardins affaires scolaires pour rangement</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2019-11-16</t>
-        </is>
+      <c r="E171" t="n">
+        <v>43785</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7044,10 +6704,8 @@
           <t>metro courses</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>2019-11-16</t>
-        </is>
+      <c r="E172" t="n">
+        <v>43785</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7082,10 +6740,8 @@
           <t>retrait distributeur</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>2019-11-17</t>
-        </is>
+      <c r="E173" t="n">
+        <v>43786</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7120,10 +6776,8 @@
           <t>achat telephone liam iphone 7 (espece)</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>2019-11-17</t>
-        </is>
+      <c r="E174" t="n">
+        <v>43786</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7158,10 +6812,8 @@
           <t xml:space="preserve"> jap illimite</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>2019-11-17</t>
-        </is>
+      <c r="E175" t="n">
+        <v>43786</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7196,10 +6848,8 @@
           <t xml:space="preserve"> avance mcdo</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>2019-11-22</t>
-        </is>
+      <c r="E176" t="n">
+        <v>43791</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7238,10 +6888,8 @@
           <t>bieres pour le chalet</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>2019-11-22</t>
-        </is>
+      <c r="E177" t="n">
+        <v>43791</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7280,10 +6928,8 @@
           <t>remboursement avance chalet</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>2019-11-22</t>
-        </is>
+      <c r="E178" t="n">
+        <v>43791</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7322,10 +6968,8 @@
           <t>chalet tout compris</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>2019-11-22</t>
-        </is>
+      <c r="E179" t="n">
+        <v>43791</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7364,10 +7008,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
+      <c r="E180" t="n">
+        <v>43797</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7402,10 +7044,8 @@
           <t xml:space="preserve"> pompe velo</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
+      <c r="E181" t="n">
+        <v>43797</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7440,10 +7080,8 @@
           <t>peluches pour noel</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
+      <c r="E182" t="n">
+        <v>43797</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7478,10 +7116,8 @@
           <t xml:space="preserve"> lettre recommandee desabonnement le monde</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
+      <c r="E183" t="n">
+        <v>43797</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -7516,10 +7152,8 @@
           <t>livre plouf</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
+      <c r="E184" t="n">
+        <v>43797</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7554,10 +7188,8 @@
           <t xml:space="preserve"> aprem gaming</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>2019-11-29</t>
-        </is>
+      <c r="E185" t="n">
+        <v>43798</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7592,10 +7224,8 @@
           <t xml:space="preserve"> the et gingembre</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>2019-11-29</t>
-        </is>
+      <c r="E186" t="n">
+        <v>43798</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -7630,10 +7260,8 @@
           <t xml:space="preserve"> collant et 2 paires de chaussettes hiver</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>2019-12-01</t>
-        </is>
+      <c r="E187" t="n">
+        <v>43800</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -7668,10 +7296,8 @@
           <t>apport solde linge</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>2019-12-03</t>
-        </is>
+      <c r="E188" t="n">
+        <v>43802</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -7706,10 +7332,8 @@
           <t>crypt of the necrdancer</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>2019-12-03</t>
-        </is>
+      <c r="E189" t="n">
+        <v>43802</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -7744,10 +7368,8 @@
           <t>iga courses</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>2019-12-05</t>
-        </is>
+      <c r="E190" t="n">
+        <v>43804</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -7782,10 +7404,8 @@
           <t>remboursement etienne courses</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>2019-12-05</t>
-        </is>
+      <c r="E191" t="n">
+        <v>43804</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -7820,10 +7440,8 @@
           <t xml:space="preserve"> bas pour la course et gants en merino</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>2019-12-05</t>
-        </is>
+      <c r="E192" t="n">
+        <v>43804</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7858,10 +7476,8 @@
           <t>iga courses</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>2019-12-09</t>
-        </is>
+      <c r="E193" t="n">
+        <v>43808</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7896,10 +7512,8 @@
           <t xml:space="preserve"> lettres pour noel pour la famille</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
+      <c r="E194" t="n">
+        <v>43809</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -7934,10 +7548,8 @@
           <t xml:space="preserve"> barres cereales testees fin marathon, nouveau test</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
+      <c r="E195" t="n">
+        <v>43811</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -7972,10 +7584,8 @@
           <t xml:space="preserve"> pain au fromage</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
+      <c r="E196" t="n">
+        <v>43811</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8010,10 +7620,8 @@
           <t xml:space="preserve"> biere</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
+      <c r="E197" t="n">
+        <v>43811</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8048,10 +7656,8 @@
           <t>cadeau papa et yann</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>2019-12-15</t>
-        </is>
+      <c r="E198" t="n">
+        <v>43814</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8086,10 +7692,8 @@
           <t>pub st patrick</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>2019-12-15</t>
-        </is>
+      <c r="E199" t="n">
+        <v>43814</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8124,10 +7728,8 @@
           <t xml:space="preserve"> paniers pour ranger</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>2019-12-16</t>
-        </is>
+      <c r="E200" t="n">
+        <v>43815</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -8162,10 +7764,8 @@
           <t xml:space="preserve"> 5 livres</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>2019-12-16</t>
-        </is>
+      <c r="E201" t="n">
+        <v>43815</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8200,10 +7800,8 @@
           <t xml:space="preserve"> courses legeres</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>2019-12-16</t>
-        </is>
+      <c r="E202" t="n">
+        <v>43815</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8238,10 +7836,8 @@
           <t>remboursement etienne bacon et oeufs metro courses</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>2019-12-16</t>
-        </is>
+      <c r="E203" t="n">
+        <v>43815</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8276,10 +7872,8 @@
           <t>frigo poche achete</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>2019-12-17</t>
-        </is>
+      <c r="E204" t="n">
+        <v>43816</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8314,10 +7908,8 @@
           <t xml:space="preserve"> courses semaine</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>2019-12-18</t>
-        </is>
+      <c r="E205" t="n">
+        <v>43817</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8352,10 +7944,8 @@
           <t xml:space="preserve"> courses cuisine</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>2019-12-19</t>
-        </is>
+      <c r="E206" t="n">
+        <v>43818</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8390,10 +7980,8 @@
           <t>remboursement etienne metro</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>2019-12-19</t>
-        </is>
+      <c r="E207" t="n">
+        <v>43818</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8428,10 +8016,8 @@
           <t xml:space="preserve"> haut coupe vent et calecons</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>2019-12-19</t>
-        </is>
+      <c r="E208" t="n">
+        <v>43818</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8466,10 +8052,8 @@
           <t xml:space="preserve"> the et biscuits</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>2019-12-22</t>
-        </is>
+      <c r="E209" t="n">
+        <v>43821</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8504,10 +8088,8 @@
           <t xml:space="preserve"> avance pour le repas de noel</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>2019-12-22</t>
-        </is>
+      <c r="E210" t="n">
+        <v>43821</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8542,10 +8124,8 @@
           <t xml:space="preserve"> courses et avance pour le repas de noel</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>2019-12-22</t>
-        </is>
+      <c r="E211" t="n">
+        <v>43821</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -8580,10 +8160,8 @@
           <t>remboursement noel</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>2019-12-22</t>
-        </is>
+      <c r="E212" t="n">
+        <v>43821</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -8622,10 +8200,8 @@
           <t>remboursement noel</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>2019-12-22</t>
-        </is>
+      <c r="E213" t="n">
+        <v>43821</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -8660,10 +8236,8 @@
           <t xml:space="preserve"> loyer residence</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>2019-12-25</t>
-        </is>
+      <c r="E214" t="n">
+        <v>43824</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -8698,10 +8272,8 @@
           <t xml:space="preserve"> remboursement commande</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>2019-12-25</t>
-        </is>
+      <c r="E215" t="n">
+        <v>43824</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -8736,10 +8308,8 @@
           <t xml:space="preserve"> achat chaussettes hiver</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>2019-12-25</t>
-        </is>
+      <c r="E216" t="n">
+        <v>43824</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8774,10 +8344,8 @@
           <t xml:space="preserve"> plaque pour gateaux</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>2019-12-26</t>
-        </is>
+      <c r="E217" t="n">
+        <v>43825</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8812,10 +8380,8 @@
           <t xml:space="preserve"> course et beaucoup pour la cuisine</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>2019-12-26</t>
-        </is>
+      <c r="E218" t="n">
+        <v>43825</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -8850,10 +8416,8 @@
           <t xml:space="preserve"> star wars</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>2019-12-26</t>
-        </is>
+      <c r="E219" t="n">
+        <v>43825</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -8888,10 +8452,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>2019-12-26</t>
-        </is>
+      <c r="E220" t="n">
+        <v>43825</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -8926,10 +8488,8 @@
           <t xml:space="preserve"> courses pour repas du 31</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
-        </is>
+      <c r="E221" t="n">
+        <v>43830</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -8964,10 +8524,8 @@
           <t>remboursement repas 31 kenan</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
-        </is>
+      <c r="E222" t="n">
+        <v>43830</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9002,10 +8560,8 @@
           <t>apport solde linge</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>2020-01-01</t>
-        </is>
+      <c r="E223" t="n">
+        <v>43831</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9040,10 +8596,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>2020-01-05</t>
-        </is>
+      <c r="E224" t="n">
+        <v>43835</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9078,10 +8632,8 @@
           <t xml:space="preserve"> bouffe apres le shackeur</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>2020-01-08</t>
-        </is>
+      <c r="E225" t="n">
+        <v>43838</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9116,10 +8668,8 @@
           <t xml:space="preserve"> payment du semestre</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>2020-01-09</t>
-        </is>
+      <c r="E226" t="n">
+        <v>43839</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9154,10 +8704,8 @@
           <t xml:space="preserve"> ticket aller retour</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>2020-01-09</t>
-        </is>
+      <c r="E227" t="n">
+        <v>43839</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9192,10 +8740,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>2020-01-10</t>
-        </is>
+      <c r="E228" t="n">
+        <v>43840</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9230,10 +8776,8 @@
           <t xml:space="preserve"> materiel scolaire</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>2020-01-11</t>
-        </is>
+      <c r="E229" t="n">
+        <v>43841</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9272,10 +8816,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>2020-01-14</t>
-        </is>
+      <c r="E230" t="n">
+        <v>43844</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9310,10 +8852,8 @@
           <t xml:space="preserve"> lentilles et amandes</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>2020-01-15</t>
-        </is>
+      <c r="E231" t="n">
+        <v>43845</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -9352,10 +8892,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>2020-01-15</t>
-        </is>
+      <c r="E232" t="n">
+        <v>43845</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9390,10 +8928,8 @@
           <t xml:space="preserve"> voyage a chicago</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>2020-01-16</t>
-        </is>
+      <c r="E233" t="n">
+        <v>43846</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -9432,10 +8968,8 @@
           <t xml:space="preserve"> patisserie</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>2020-01-16</t>
-        </is>
+      <c r="E234" t="n">
+        <v>43846</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -9470,10 +9004,8 @@
           <t xml:space="preserve"> avec louis</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>2020-01-18</t>
-        </is>
+      <c r="E235" t="n">
+        <v>43848</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -9508,10 +9040,8 @@
           <t xml:space="preserve"> livres de cours</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>2020-01-20</t>
-        </is>
+      <c r="E236" t="n">
+        <v>43850</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -9546,10 +9076,8 @@
           <t xml:space="preserve"> dent cassee en patinant</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>2020-01-20</t>
-        </is>
+      <c r="E237" t="n">
+        <v>43850</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -9584,10 +9112,8 @@
           <t xml:space="preserve"> film 1917</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>2020-01-25</t>
-        </is>
+      <c r="E238" t="n">
+        <v>43855</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -9622,10 +9148,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>2020-01-25</t>
-        </is>
+      <c r="E239" t="n">
+        <v>43855</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -9660,10 +9184,8 @@
           <t xml:space="preserve"> northgard</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>2020-01-26</t>
-        </is>
+      <c r="E240" t="n">
+        <v>43856</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -9698,10 +9220,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>2020-01-26</t>
-        </is>
+      <c r="E241" t="n">
+        <v>43856</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -9736,10 +9256,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>2020-01-26</t>
-        </is>
+      <c r="E242" t="n">
+        <v>43856</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -9774,10 +9292,8 @@
           <t xml:space="preserve"> fruits secs</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>2020-01-29</t>
-        </is>
+      <c r="E243" t="n">
+        <v>43859</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -9812,10 +9328,8 @@
           <t xml:space="preserve"> panier pour rangement</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>2020-01-30</t>
-        </is>
+      <c r="E244" t="n">
+        <v>43860</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9850,10 +9364,8 @@
           <t xml:space="preserve"> bananes</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>2020-01-30</t>
-        </is>
+      <c r="E245" t="n">
+        <v>43860</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9888,10 +9400,8 @@
           <t xml:space="preserve"> date avec ellie</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>2020-02-02</t>
-        </is>
+      <c r="E246" t="n">
+        <v>43863</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -9926,10 +9436,8 @@
           <t xml:space="preserve"> preservatifs</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>2020-02-02</t>
-        </is>
+      <c r="E247" t="n">
+        <v>43863</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -9964,10 +9472,8 @@
           <t xml:space="preserve"> fruits secs</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>2020-02-03</t>
-        </is>
+      <c r="E248" t="n">
+        <v>43864</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10002,10 +9508,8 @@
           <t xml:space="preserve"> aaptateur prise americaine</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>2020-02-04</t>
-        </is>
+      <c r="E249" t="n">
+        <v>43865</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10040,10 +9544,8 @@
           <t xml:space="preserve"> livre</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
+      <c r="E250" t="n">
+        <v>43866</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10078,10 +9580,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>2020-02-06</t>
-        </is>
+      <c r="E251" t="n">
+        <v>43867</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10120,10 +9620,8 @@
           <t>bus illimite</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>2020-02-06</t>
-        </is>
+      <c r="E252" t="n">
+        <v>43867</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10162,10 +9660,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>2020-02-06</t>
-        </is>
+      <c r="E253" t="n">
+        <v>43867</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10204,10 +9700,8 @@
           <t xml:space="preserve"> restaurant</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
+      <c r="E254" t="n">
+        <v>43868</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10246,10 +9740,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
+      <c r="E255" t="n">
+        <v>43868</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10288,10 +9780,8 @@
           <t xml:space="preserve"> pizza</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>2020-02-08</t>
-        </is>
+      <c r="E256" t="n">
+        <v>43869</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10330,10 +9820,8 @@
           <t xml:space="preserve"> pizza pate chicago</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>2020-02-09</t>
-        </is>
+      <c r="E257" t="n">
+        <v>43870</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10372,10 +9860,8 @@
           <t xml:space="preserve"> donuts</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>2020-02-09</t>
-        </is>
+      <c r="E258" t="n">
+        <v>43870</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10414,10 +9900,8 @@
           <t xml:space="preserve"> bol</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>2020-02-10</t>
-        </is>
+      <c r="E259" t="n">
+        <v>43871</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -10456,10 +9940,8 @@
           <t xml:space="preserve"> fruits secs</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>2020-02-12</t>
-        </is>
+      <c r="E260" t="n">
+        <v>43873</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -10494,10 +9976,8 @@
           <t xml:space="preserve"> papier</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>2020-02-13</t>
-        </is>
+      <c r="E261" t="n">
+        <v>43874</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -10532,10 +10012,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
-        </is>
+      <c r="E262" t="n">
+        <v>43875</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -10570,10 +10048,8 @@
           <t>logement pour montreal</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>2020-02-15</t>
-        </is>
+      <c r="E263" t="n">
+        <v>43876</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -10608,10 +10084,8 @@
           <t xml:space="preserve"> caq</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>2020-02-15</t>
-        </is>
+      <c r="E264" t="n">
+        <v>43876</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -10646,10 +10120,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>2020-02-17</t>
-        </is>
+      <c r="E265" t="n">
+        <v>43878</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -10684,10 +10156,8 @@
           <t xml:space="preserve"> fruits secs</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>2020-02-19</t>
-        </is>
+      <c r="E266" t="n">
+        <v>43880</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -10722,10 +10192,8 @@
           <t xml:space="preserve"> fruits secs</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>2020-02-26</t>
-        </is>
+      <c r="E267" t="n">
+        <v>43887</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -10760,10 +10228,8 @@
           <t xml:space="preserve"> livres et piles</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>2020-02-26</t>
-        </is>
+      <c r="E268" t="n">
+        <v>43887</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -10798,10 +10264,8 @@
           <t xml:space="preserve"> the, fromage et gingembre</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>2020-02-27</t>
-        </is>
+      <c r="E269" t="n">
+        <v>43888</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -10836,10 +10300,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>2020-02-29</t>
-        </is>
+      <c r="E270" t="n">
+        <v>43890</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -10874,10 +10336,8 @@
           <t xml:space="preserve"> loyer</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>2020-03-01</t>
-        </is>
+      <c r="E271" t="n">
+        <v>43891</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -10912,10 +10372,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
+      <c r="E272" t="n">
+        <v>43892</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -10950,10 +10408,8 @@
           <t xml:space="preserve"> livres</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
+      <c r="E273" t="n">
+        <v>43892</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -10988,10 +10444,8 @@
           <t>retrait liquide</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
+      <c r="E274" t="n">
+        <v>43892</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11026,10 +10480,8 @@
           <t xml:space="preserve"> jeu video</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
+      <c r="E275" t="n">
+        <v>43892</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11064,10 +10516,8 @@
           <t>avance van gogh pour marie et jacques</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>2020-03-04</t>
-        </is>
+      <c r="E276" t="n">
+        <v>43894</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11106,10 +10556,8 @@
           <t>avance new city gaz pour marie et jacques</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>2020-03-04</t>
-        </is>
+      <c r="E277" t="n">
+        <v>43894</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11148,10 +10596,8 @@
           <t>remboursement avance van gogh</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>2020-03-04</t>
-        </is>
+      <c r="E278" t="n">
+        <v>43894</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11190,10 +10636,8 @@
           <t xml:space="preserve">remboursement avance new city gaz </t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>2020-03-04</t>
-        </is>
+      <c r="E279" t="n">
+        <v>43894</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11232,10 +10676,8 @@
           <t>transport montreal</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>2020-03-05</t>
-        </is>
+      <c r="E280" t="n">
+        <v>43895</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11274,10 +10716,8 @@
           <t xml:space="preserve"> courses pour road trip</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>2020-03-05</t>
-        </is>
+      <c r="E281" t="n">
+        <v>43895</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -11316,10 +10756,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>2020-03-05</t>
-        </is>
+      <c r="E282" t="n">
+        <v>43895</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11358,10 +10796,8 @@
           <t>sandwich boucherie</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>2020-03-06</t>
-        </is>
+      <c r="E283" t="n">
+        <v>43896</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11400,10 +10836,8 @@
           <t xml:space="preserve"> milkshake</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>2020-03-06</t>
-        </is>
+      <c r="E284" t="n">
+        <v>43896</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -11442,10 +10876,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>2020-03-07</t>
-        </is>
+      <c r="E285" t="n">
+        <v>43897</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -11484,10 +10916,8 @@
           <t xml:space="preserve"> brunch</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>2020-03-08</t>
-        </is>
+      <c r="E286" t="n">
+        <v>43898</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -11526,10 +10956,8 @@
           <t xml:space="preserve"> preservatifs et lubrifiant</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>2020-03-10</t>
-        </is>
+      <c r="E287" t="n">
+        <v>43900</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -11564,10 +10992,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>2020-03-10</t>
-        </is>
+      <c r="E288" t="n">
+        <v>43900</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -11602,10 +11028,8 @@
           <t>attestation d inscription</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>2020-03-11</t>
-        </is>
+      <c r="E289" t="n">
+        <v>43901</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -11640,10 +11064,8 @@
           <t xml:space="preserve"> lettre pour caq</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>2020-03-11</t>
-        </is>
+      <c r="E290" t="n">
+        <v>43901</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -11678,10 +11100,8 @@
           <t xml:space="preserve"> fruits secs</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>2020-03-11</t>
-        </is>
+      <c r="E291" t="n">
+        <v>43901</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -11716,10 +11136,8 @@
           <t xml:space="preserve"> souvenirs</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>2020-03-13</t>
-        </is>
+      <c r="E292" t="n">
+        <v>43903</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -11758,10 +11176,8 @@
           <t xml:space="preserve"> sundae</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>2020-03-14</t>
-        </is>
+      <c r="E293" t="n">
+        <v>43904</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -11800,10 +11216,8 @@
           <t xml:space="preserve"> manger</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>2020-03-14</t>
-        </is>
+      <c r="E294" t="n">
+        <v>43904</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -11842,10 +11256,8 @@
           <t>in and out</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>2020-03-14</t>
-        </is>
+      <c r="E295" t="n">
+        <v>43904</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -11884,10 +11296,8 @@
           <t>five guys</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>2020-03-15</t>
-        </is>
+      <c r="E296" t="n">
+        <v>43905</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -11926,10 +11336,8 @@
           <t>remboursement five guys frites</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>2020-03-15</t>
-        </is>
+      <c r="E297" t="n">
+        <v>43905</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -11968,10 +11376,8 @@
           <t>korean bbq</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>2020-03-15</t>
-        </is>
+      <c r="E298" t="n">
+        <v>43905</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12010,10 +11416,8 @@
           <t>burger king</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>2020-03-16</t>
-        </is>
+      <c r="E299" t="n">
+        <v>43906</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12052,10 +11456,8 @@
           <t xml:space="preserve"> avance</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>2020-03-17</t>
-        </is>
+      <c r="E300" t="n">
+        <v>43907</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12094,10 +11496,8 @@
           <t>remboursement wendy s</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>2020-03-17</t>
-        </is>
+      <c r="E301" t="n">
+        <v>43907</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12136,10 +11536,8 @@
           <t xml:space="preserve"> burger</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>2020-03-18</t>
-        </is>
+      <c r="E302" t="n">
+        <v>43908</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12178,10 +11576,8 @@
           <t xml:space="preserve"> dlc crypt</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>2020-03-20</t>
-        </is>
+      <c r="E303" t="n">
+        <v>43910</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12216,10 +11612,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>2020-03-22</t>
-        </is>
+      <c r="E304" t="n">
+        <v>43912</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12254,10 +11648,8 @@
           <t>remboursement logement aurelien la</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>2020-03-23</t>
-        </is>
+      <c r="E305" t="n">
+        <v>43913</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -12292,10 +11684,8 @@
           <t>remboursement voiture essence clement la</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>2020-03-23</t>
-        </is>
+      <c r="E306" t="n">
+        <v>43913</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -12330,10 +11720,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>2020-04-02</t>
-        </is>
+      <c r="E307" t="n">
+        <v>43923</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -12368,10 +11756,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>2020-04-03</t>
-        </is>
+      <c r="E308" t="n">
+        <v>43924</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -12406,10 +11792,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>2020-04-14</t>
-        </is>
+      <c r="E309" t="n">
+        <v>43935</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -12444,10 +11828,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>2020-04-17</t>
-        </is>
+      <c r="E310" t="n">
+        <v>43938</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -12482,10 +11864,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>2020-04-18</t>
-        </is>
+      <c r="E311" t="n">
+        <v>43939</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -12520,10 +11900,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>2020-04-27</t>
-        </is>
+      <c r="E312" t="n">
+        <v>43948</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -12558,10 +11936,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>2020-04-27</t>
-        </is>
+      <c r="E313" t="n">
+        <v>43948</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -12596,10 +11972,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>2020-05-07</t>
-        </is>
+      <c r="E314" t="n">
+        <v>43958</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -12634,10 +12008,8 @@
           <t xml:space="preserve"> chaussures + chaussettes (1 paire chaque)</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>2020-05-09</t>
-        </is>
+      <c r="E315" t="n">
+        <v>43960</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -12672,10 +12044,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>2020-05-13</t>
-        </is>
+      <c r="E316" t="n">
+        <v>43964</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -12710,10 +12080,8 @@
           <t xml:space="preserve"> courses et extra</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>2020-05-15</t>
-        </is>
+      <c r="E317" t="n">
+        <v>43966</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -12748,10 +12116,8 @@
           <t xml:space="preserve"> argent pour machine a laver</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>2020-05-15</t>
-        </is>
+      <c r="E318" t="n">
+        <v>43966</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -12786,10 +12152,8 @@
           <t xml:space="preserve"> ratropolis</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>2020-05-16</t>
-        </is>
+      <c r="E319" t="n">
+        <v>43967</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -12824,10 +12188,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>2020-05-20</t>
-        </is>
+      <c r="E320" t="n">
+        <v>43971</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -12862,10 +12224,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>2020-05-22</t>
-        </is>
+      <c r="E321" t="n">
+        <v>43973</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -12900,10 +12260,8 @@
           <t xml:space="preserve"> papiers pour permi etude manquants</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>2020-05-28</t>
-        </is>
+      <c r="E322" t="n">
+        <v>43979</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -12938,10 +12296,8 @@
           <t xml:space="preserve"> equipement et affaires scolaires</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>2020-05-28</t>
-        </is>
+      <c r="E323" t="n">
+        <v>43979</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -12976,10 +12332,8 @@
           <t xml:space="preserve"> courses et extra</t>
         </is>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>2020-05-28</t>
-        </is>
+      <c r="E324" t="n">
+        <v>43979</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -13014,10 +12368,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>2020-06-02</t>
-        </is>
+      <c r="E325" t="n">
+        <v>43984</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -13052,10 +12404,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>2020-06-03</t>
-        </is>
+      <c r="E326" t="n">
+        <v>43985</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -13090,10 +12440,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>2020-06-03</t>
-        </is>
+      <c r="E327" t="n">
+        <v>43985</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -13128,10 +12476,8 @@
           <t xml:space="preserve"> glaces</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>2020-06-03</t>
-        </is>
+      <c r="E328" t="n">
+        <v>43985</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -13166,10 +12512,8 @@
           <t xml:space="preserve"> ostheopathie</t>
         </is>
       </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>2020-06-04</t>
-        </is>
+      <c r="E329" t="n">
+        <v>43986</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -13204,10 +12548,8 @@
           <t xml:space="preserve"> loyer</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>2020-06-05</t>
-        </is>
+      <c r="E330" t="n">
+        <v>43987</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -13242,10 +12584,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>2020-06-08</t>
-        </is>
+      <c r="E331" t="n">
+        <v>43990</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -13280,10 +12620,8 @@
           <t xml:space="preserve"> dentiste</t>
         </is>
       </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>2020-06-10</t>
-        </is>
+      <c r="E332" t="n">
+        <v>43992</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -13318,10 +12656,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>2020-06-12</t>
-        </is>
+      <c r="E333" t="n">
+        <v>43994</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -13356,10 +12692,8 @@
           <t xml:space="preserve"> glaces</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>2020-06-12</t>
-        </is>
+      <c r="E334" t="n">
+        <v>43994</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -13394,10 +12728,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>2020-06-13</t>
-        </is>
+      <c r="E335" t="n">
+        <v>43995</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -13432,10 +12764,8 @@
           <t xml:space="preserve"> argent pour machine a laver</t>
         </is>
       </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>2020-06-14</t>
-        </is>
+      <c r="E336" t="n">
+        <v>43996</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -13470,10 +12800,8 @@
           <t xml:space="preserve"> balais</t>
         </is>
       </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>2020-06-15</t>
-        </is>
+      <c r="E337" t="n">
+        <v>43997</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -13508,10 +12836,8 @@
           <t xml:space="preserve"> achat lime a ongle, fil dentaire et ciseau ongle</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>2020-06-16</t>
-        </is>
+      <c r="E338" t="n">
+        <v>43998</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -13546,10 +12872,8 @@
           <t xml:space="preserve"> coupe de cheveux</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>2020-06-16</t>
-        </is>
+      <c r="E339" t="n">
+        <v>43998</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -13584,10 +12908,8 @@
           <t xml:space="preserve"> restaurant</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>2020-06-17</t>
-        </is>
+      <c r="E340" t="n">
+        <v>43999</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -13622,10 +12944,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>2020-06-18</t>
-        </is>
+      <c r="E341" t="n">
+        <v>44000</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -13660,10 +12980,8 @@
           <t>masque pour pandemie corona</t>
         </is>
       </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>2020-06-22</t>
-        </is>
+      <c r="E342" t="n">
+        <v>44004</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -13698,10 +13016,8 @@
           <t xml:space="preserve"> popcorn</t>
         </is>
       </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>2020-06-22</t>
-        </is>
+      <c r="E343" t="n">
+        <v>44004</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -13736,10 +13052,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>2020-06-26</t>
-        </is>
+      <c r="E344" t="n">
+        <v>44008</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -13774,10 +13088,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>2020-06-26</t>
-        </is>
+      <c r="E345" t="n">
+        <v>44008</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -13812,10 +13124,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>2020-07-01</t>
-        </is>
+      <c r="E346" t="n">
+        <v>44013</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -13850,10 +13160,8 @@
           <t xml:space="preserve"> pains au raisin</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>2020-07-03</t>
-        </is>
+      <c r="E347" t="n">
+        <v>44015</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -13888,10 +13196,8 @@
           <t xml:space="preserve"> glace</t>
         </is>
       </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>2020-07-04</t>
-        </is>
+      <c r="E348" t="n">
+        <v>44016</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -13926,10 +13232,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>2020-07-04</t>
-        </is>
+      <c r="E349" t="n">
+        <v>44016</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -13964,10 +13268,8 @@
           <t xml:space="preserve"> corde a sauter et chaussettes course</t>
         </is>
       </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>2020-07-07</t>
-        </is>
+      <c r="E350" t="n">
+        <v>44019</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -14002,10 +13304,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>2020-07-07</t>
-        </is>
+      <c r="E351" t="n">
+        <v>44019</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -14040,10 +13340,8 @@
           <t xml:space="preserve"> clavier qwerty</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>2020-07-08</t>
-        </is>
+      <c r="E352" t="n">
+        <v>44020</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -14078,10 +13376,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>2020-07-08</t>
-        </is>
+      <c r="E353" t="n">
+        <v>44020</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -14116,10 +13412,8 @@
           <t xml:space="preserve"> nutritionniste</t>
         </is>
       </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>2020-07-08</t>
-        </is>
+      <c r="E354" t="n">
+        <v>44020</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -14154,10 +13448,8 @@
           <t xml:space="preserve"> loyer</t>
         </is>
       </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>2020-07-10</t>
-        </is>
+      <c r="E355" t="n">
+        <v>44022</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -14192,10 +13484,8 @@
           <t xml:space="preserve"> ticket pour le bus</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>2020-07-10</t>
-        </is>
+      <c r="E356" t="n">
+        <v>44022</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -14230,10 +13520,8 @@
           <t>epicerie europeenne</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>2020-07-10</t>
-        </is>
+      <c r="E357" t="n">
+        <v>44022</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -14268,10 +13556,8 @@
           <t xml:space="preserve"> flocon d avoinne, noix et echalotte</t>
         </is>
       </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>2020-07-10</t>
-        </is>
+      <c r="E358" t="n">
+        <v>44022</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -14306,10 +13592,8 @@
           <t xml:space="preserve"> ligne telephonique</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>2020-07-10</t>
-        </is>
+      <c r="E359" t="n">
+        <v>44022</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -14344,10 +13628,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>2020-07-14</t>
-        </is>
+      <c r="E360" t="n">
+        <v>44026</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -14382,10 +13664,8 @@
           <t xml:space="preserve"> mcdo</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>2020-07-15</t>
-        </is>
+      <c r="E361" t="n">
+        <v>44027</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -14420,10 +13700,8 @@
           <t xml:space="preserve"> chaussettes et calecons</t>
         </is>
       </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>2020-07-16</t>
-        </is>
+      <c r="E362" t="n">
+        <v>44028</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -14458,10 +13736,8 @@
           <t xml:space="preserve"> chaussures geox de ville</t>
         </is>
       </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>2020-07-16</t>
-        </is>
+      <c r="E363" t="n">
+        <v>44028</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -14496,10 +13772,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>2020-07-16</t>
-        </is>
+      <c r="E364" t="n">
+        <v>44028</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -14534,10 +13808,8 @@
           <t xml:space="preserve"> remboursement calecons</t>
         </is>
       </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>2020-07-19</t>
-        </is>
+      <c r="E365" t="n">
+        <v>44031</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -14572,10 +13844,8 @@
           <t xml:space="preserve"> calecons</t>
         </is>
       </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>2020-07-19</t>
-        </is>
+      <c r="E366" t="n">
+        <v>44031</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -14610,10 +13880,8 @@
           <t xml:space="preserve"> short course</t>
         </is>
       </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>2020-07-19</t>
-        </is>
+      <c r="E367" t="n">
+        <v>44031</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -14648,10 +13916,8 @@
           <t xml:space="preserve"> assurance maladie et hospitalisation</t>
         </is>
       </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>2020-07-20</t>
-        </is>
+      <c r="E368" t="n">
+        <v>44032</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -14686,10 +13952,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>2020-07-20</t>
-        </is>
+      <c r="E369" t="n">
+        <v>44032</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -14724,10 +13988,8 @@
           <t xml:space="preserve"> piscine</t>
         </is>
       </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>2020-07-20</t>
-        </is>
+      <c r="E370" t="n">
+        <v>44032</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -14762,10 +14024,8 @@
           <t>epicerie europeenne</t>
         </is>
       </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>2020-07-21</t>
-        </is>
+      <c r="E371" t="n">
+        <v>44033</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -14800,10 +14060,8 @@
           <t xml:space="preserve"> flocon d avoinne, miel et papaye + mangue sechee</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>2020-07-21</t>
-        </is>
+      <c r="E372" t="n">
+        <v>44033</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -14838,10 +14096,8 @@
           <t xml:space="preserve"> pizza</t>
         </is>
       </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>2020-07-22</t>
-        </is>
+      <c r="E373" t="n">
+        <v>44034</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -14876,10 +14132,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>2020-07-24</t>
-        </is>
+      <c r="E374" t="n">
+        <v>44036</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -14914,10 +14168,8 @@
           <t xml:space="preserve"> smoothie</t>
         </is>
       </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>2020-07-25</t>
-        </is>
+      <c r="E375" t="n">
+        <v>44037</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -14952,10 +14204,8 @@
           <t>retrait borne</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>2020-07-28</t>
-        </is>
+      <c r="E376" t="n">
+        <v>44040</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -14990,10 +14240,8 @@
           <t xml:space="preserve"> midi</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>2020-07-29</t>
-        </is>
+      <c r="E377" t="n">
+        <v>44041</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -15028,10 +14276,8 @@
           <t xml:space="preserve"> plein essence</t>
         </is>
       </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>2020-07-29</t>
-        </is>
+      <c r="E378" t="n">
+        <v>44041</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -15066,10 +14312,8 @@
           <t xml:space="preserve"> plein essence</t>
         </is>
       </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>2020-07-29</t>
-        </is>
+      <c r="E379" t="n">
+        <v>44041</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -15104,10 +14348,8 @@
           <t xml:space="preserve"> place de stationnement</t>
         </is>
       </c>
-      <c r="E380" t="inlineStr">
-        <is>
-          <t>2020-07-29</t>
-        </is>
+      <c r="E380" t="n">
+        <v>44041</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -15142,10 +14384,8 @@
           <t xml:space="preserve"> location voiture</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>2020-07-29</t>
-        </is>
+      <c r="E381" t="n">
+        <v>44041</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -15180,10 +14420,8 @@
           <t xml:space="preserve"> achat pc portable au detaillant</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>2020-07-29</t>
-        </is>
+      <c r="E382" t="n">
+        <v>44041</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -15222,10 +14460,8 @@
           <t xml:space="preserve"> achat cle usb 64go</t>
         </is>
       </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>2020-07-30</t>
-        </is>
+      <c r="E383" t="n">
+        <v>44042</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -15260,10 +14496,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>2020-07-30</t>
-        </is>
+      <c r="E384" t="n">
+        <v>44042</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -15298,10 +14532,8 @@
           <t xml:space="preserve"> nutritionniste</t>
         </is>
       </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>2020-07-30</t>
-        </is>
+      <c r="E385" t="n">
+        <v>44042</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -15336,10 +14568,8 @@
           <t xml:space="preserve"> flocon d avoinne, papaye + mangue sechee</t>
         </is>
       </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>2020-08-03</t>
-        </is>
+      <c r="E386" t="n">
+        <v>44046</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -15374,10 +14604,8 @@
           <t>epicerie europeenne</t>
         </is>
       </c>
-      <c r="E387" t="inlineStr">
-        <is>
-          <t>2020-08-03</t>
-        </is>
+      <c r="E387" t="n">
+        <v>44046</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -15412,10 +14640,8 @@
           <t xml:space="preserve"> argent pour machine a laver</t>
         </is>
       </c>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>2020-08-03</t>
-        </is>
+      <c r="E388" t="n">
+        <v>44046</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -15450,10 +14676,8 @@
           <t xml:space="preserve"> abonnement</t>
         </is>
       </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>2020-08-07</t>
-        </is>
+      <c r="E389" t="n">
+        <v>44050</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -15488,10 +14712,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E390" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
+      <c r="E390" t="n">
+        <v>44051</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -15526,10 +14748,8 @@
           <t>medecin generaliste</t>
         </is>
       </c>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>2020-08-09</t>
-        </is>
+      <c r="E391" t="n">
+        <v>44052</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -15564,10 +14784,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>2020-08-11</t>
-        </is>
+      <c r="E392" t="n">
+        <v>44054</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -15602,10 +14820,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>2020-08-14</t>
-        </is>
+      <c r="E393" t="n">
+        <v>44057</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -15640,10 +14856,8 @@
           <t xml:space="preserve"> donuts</t>
         </is>
       </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>2020-08-16</t>
-        </is>
+      <c r="E394" t="n">
+        <v>44059</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -15678,10 +14892,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>2020-08-16</t>
-        </is>
+      <c r="E395" t="n">
+        <v>44059</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -15716,10 +14928,8 @@
           <t xml:space="preserve"> kine</t>
         </is>
       </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>2020-08-18</t>
-        </is>
+      <c r="E396" t="n">
+        <v>44061</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -15754,10 +14964,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E397" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
+      <c r="E397" t="n">
+        <v>44063</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -15792,10 +15000,8 @@
           <t xml:space="preserve"> courses</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
+      <c r="E398" t="n">
+        <v>44063</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -15830,10 +15036,8 @@
           <t xml:space="preserve"> aprem gaming</t>
         </is>
       </c>
-      <c r="E399" t="inlineStr">
-        <is>
-          <t>2020-08-22</t>
-        </is>
+      <c r="E399" t="n">
+        <v>44065</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -15868,10 +15072,8 @@
           <t xml:space="preserve"> restaurant</t>
         </is>
       </c>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>2020-08-25</t>
-        </is>
+      <c r="E400" t="n">
+        <v>44068</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -15906,10 +15108,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>2020-08-25</t>
-        </is>
+      <c r="E401" t="n">
+        <v>44068</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -15944,10 +15144,8 @@
           <t xml:space="preserve"> ticket pour le bus</t>
         </is>
       </c>
-      <c r="E402" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
+      <c r="E402" t="n">
+        <v>44069</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
